--- a/src/test/resources/test_files/SortExcel/test_no_headers.xlsx
+++ b/src/test/resources/test_files/SortExcel/test_no_headers.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="3">
   <si>
     <t>Yak</t>
   </si>
@@ -29,8 +29,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -61,12 +62,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -447,7 +457,7 @@
       <c r="B1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="C1" t="n" s="2">
+      <c r="C1" t="n" s="11">
         <v>44270.0</v>
       </c>
     </row>
@@ -458,7 +468,7 @@
       <c r="B2" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="C2" t="n" s="3">
+      <c r="C2" t="n" s="12">
         <v>44762.0</v>
       </c>
     </row>
@@ -469,7 +479,7 @@
       <c r="B3" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="C3" t="n" s="4">
+      <c r="C3" t="n" s="13">
         <v>45056.0</v>
       </c>
     </row>

--- a/src/test/resources/test_files/SortExcel/test_no_headers.xlsx
+++ b/src/test/resources/test_files/SortExcel/test_no_headers.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="3">
   <si>
     <t>Yak</t>
   </si>
@@ -62,7 +62,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
@@ -74,6 +74,12 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
@@ -457,7 +463,7 @@
       <c r="B1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="C1" t="n" s="11">
+      <c r="C1" t="n" s="17">
         <v>44270.0</v>
       </c>
     </row>
@@ -468,7 +474,7 @@
       <c r="B2" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="C2" t="n" s="12">
+      <c r="C2" t="n" s="18">
         <v>44762.0</v>
       </c>
     </row>
@@ -479,7 +485,7 @@
       <c r="B3" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="C3" t="n" s="13">
+      <c r="C3" t="n" s="19">
         <v>45056.0</v>
       </c>
     </row>
